--- a/biology/Botanique/Liste_des_espèces_du_genre_Dendrobium/Liste_des_espèces_du_genre_Dendrobium.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Dendrobium/Liste_des_espèces_du_genre_Dendrobium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste alphabétique de toutes les espèces appartenant au genre Dendrobium selon World Checklist of Selected Plant Families (WCSP)  (28 nov. 2010)[1]:
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique de toutes les espèces appartenant au genre Dendrobium selon World Checklist of Selected Plant Families (WCSP)  (28 nov. 2010):
 Sommaire :
 Haut – A
 B
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,9 +550,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>World Checklist of Selected Plant Families (WCSP)  (01 jan. 2013)[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>World Checklist of Selected Plant Families (WCSP)  (01 jan. 2013)
 Dendrobium abbreviatum Schltr. (1912)
 Dendrobium aberrans Schltr. (1912)
 Dendrobium abhaycharanii (Phukan &amp; A.A.Mao) Schuit. &amp; Peter B.Adams (2011)
@@ -651,7 +665,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -669,7 +683,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dendrobium babiense J.J.Sm. (1912)
 Dendrobium baeuerlenii F.Muell. &amp; Kraenzl. (1894)
@@ -738,7 +754,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -756,7 +772,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dendrobium cabadbarense Ames (1915)
 Dendrobium cadetiiflorum J.J.Sm. (1935)
@@ -900,7 +918,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -918,7 +936,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dendrobium dactyliferum Rchb.f. (1884)
 Dendrobium dactylodes Rchb.f. (1877)
@@ -980,7 +1000,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -998,7 +1018,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dendrobium eboracense Kraenzl. (1894)
 Dendrobium efogiense Ormerod (2008)
@@ -1041,7 +1063,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1059,7 +1081,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dendrobium faciferum J.J.Sm. (1908)
 Dendrobium fairchildiae Ames &amp; Quisumb. (1932)
@@ -1116,7 +1140,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1134,7 +1158,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dendrobium garrettii Seidenf. (1985)
 Dendrobium gatiense Schltr. (1912)
@@ -1185,7 +1211,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1203,7 +1229,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Dendrobium habbemense P.Royen (1979)
 Dendrobium hainanense Rolfe (1896)
@@ -1264,7 +1292,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1282,7 +1310,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Dendrobium ianthinum Schuit. &amp; Puspit. (2005)
 Dendrobium igneoniveum J.J.Sm. (1927)
@@ -1321,7 +1351,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1339,7 +1369,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Dendrobium jabiense J.J.Sm. (1915)
 Dendrobium jacobsonii J.J.Sm. (1918)
@@ -1370,7 +1402,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1388,7 +1420,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Dendrobium kanakorum Kraenzl. (1910)
 Dendrobium kanburiense Seidenf. (1985)
@@ -1431,7 +1465,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1449,7 +1483,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Dendrobium laceratum Schltr. (1912)
 Dendrobium lacteum Kraenzl. (1894)
@@ -1533,7 +1569,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1551,7 +1587,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Dendrobium maccarthiae Thwaites (1855)
 Dendrobium macfarlanei F.Muell. (1876)
@@ -1639,7 +1677,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1657,7 +1695,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Dendrobium nabawanense J.J.Wood &amp; A.L.Lamb (1994)
 Dendrobium nanarauticolum Fukuy. (1937)
@@ -1699,7 +1739,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1717,7 +1757,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Dendrobium obcordatum J.J.Sm. (1928)
 Dendrobium obliquum Schltr. (1912)
@@ -1764,7 +1806,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1782,7 +1824,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Dendrobium paathii J.J.Sm. (1935)
 Dendrobium pachyanthum Schltr. (1911)
@@ -1912,7 +1956,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1930,7 +1974,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Dendrobium quadriferum Schltr. (1912)
 Dendrobium quadrilobatum Carr (1929)
@@ -1948,7 +1994,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1966,7 +2012,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Dendrobium racemosum (Nicholls) Clemesha &amp; Dockrill (1964)
 Dendrobium rachmatii J.J.Sm. (1917)
@@ -2030,7 +2078,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2048,7 +2096,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Dendrobium sabahense J.J.Wood (2008)
 Dendrobium sacculiferum J.J.Sm. (1922)
@@ -2180,7 +2230,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2198,7 +2248,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Dendrobium tampangii P.O'Byrne (2001)
 Dendrobium tangerinum P.J.Cribb (1980)
@@ -2263,7 +2315,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2281,7 +2333,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Dendrobium uliginosum J.J.Sm. (1910)
 Dendrobium umbonatum Seidenf. (1985)
@@ -2302,7 +2356,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2320,7 +2374,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Dendrobium vagabundum A.D.Hawkes &amp; A.H.Heller (1957)
 Dendrobium vagans Schltr. (1911)
@@ -2369,7 +2425,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2387,7 +2443,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Dendrobium wangliangii G.W.Hu, C.L.Long &amp; X.H.Jin (2008)
 Dendrobium wardianum R.Warner (1863)
@@ -2415,7 +2473,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Dendrobium</t>
+          <t>Liste_des_espèces_du_genre_Dendrobium</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2433,7 +2491,9 @@
           <t>X-Z</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrobium xanthoacron Schltr. (1906)
 Dendrobium xanthogenium Schltr. (1923)
